--- a/docs/Docs_Excel.xlsx
+++ b/docs/Docs_Excel.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20351"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACABD4D9-71FD-43D1-8E3D-C6251FDE1267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="2" r:id="rId1"/>
     <sheet name="标准输入输出" sheetId="3" r:id="rId2"/>
     <sheet name="IPython键盘快捷键" sheetId="4" r:id="rId3"/>
     <sheet name="代码优化工具" sheetId="1" r:id="rId4"/>
+    <sheet name="20191111进程线程协程" sheetId="5" r:id="rId5"/>
+    <sheet name="20191113地图插件对比" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="147">
   <si>
     <t>PyLint</t>
   </si>
@@ -194,12 +197,358 @@
   <si>
     <t>作用</t>
   </si>
+  <si>
+    <t>术语名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>术语解释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批处理</t>
+  </si>
+  <si>
+    <t>应用场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优缺点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对于多线程而言
+1.减少系统调用(切换线程需要系统级调用)的开销
+2.多协程运行于单线程中, 所以内存安全的, 不会产生脏数据, 也不会去竞争GIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多用于IO密集型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用于CPU密集型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发</t>
+  </si>
+  <si>
+    <t>单个CPU核心，在一个时间切片里一次只能运行一个程序，如果需要运行多个程序，则串行执行</t>
+  </si>
+  <si>
+    <t>指一个处理完了另一个再处理；</t>
+  </si>
+  <si>
+    <t>即每个程序的执行的代码（全部流程），加上执行现场（当前执行场景）；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并行：多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核心，不同的程序就分配给不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来运行。可以让多个程序同时执行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源分配和拥有的单位,同一个进程内的线程共享进程的资源；</t>
+  </si>
+  <si>
+    <t>处理器调度的基本单位；</t>
+  </si>
+  <si>
+    <t>线程内部调度的基本单位。</t>
+  </si>
+  <si>
+    <t>术语资源解释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图插件对比</t>
+  </si>
+  <si>
+    <t>插件名</t>
+  </si>
+  <si>
+    <t> 简介</t>
+  </si>
+  <si>
+    <t>区域支持</t>
+  </si>
+  <si>
+    <t>扩展性</t>
+  </si>
+  <si>
+    <t>离线支持</t>
+  </si>
+  <si>
+    <t>多浏览器支持</t>
+  </si>
+  <si>
+    <t> 优点</t>
+  </si>
+  <si>
+    <t> 缺点</t>
+  </si>
+  <si>
+    <t>jVectorMap</t>
+  </si>
+  <si>
+    <t>国外一款显示矢量地图的jQuery插件。</t>
+  </si>
+  <si>
+    <t>世界、全国、省</t>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>使用相对简单。</t>
+  </si>
+  <si>
+    <t>只支持到省级划分，不支持市级。</t>
+  </si>
+  <si>
+    <t>加载速度快。</t>
+  </si>
+  <si>
+    <t>样式、显示效果不理想。</t>
+  </si>
+  <si>
+    <t>多浏览器支持较好。</t>
+  </si>
+  <si>
+    <t>仅有基本的显示功能，若要完成复杂交互，需改源码。</t>
+  </si>
+  <si>
+    <t>扩展性不强。</t>
+  </si>
+  <si>
+    <t>Echarts</t>
+  </si>
+  <si>
+    <t>国内一款开源插件，来自百度商业前端数据可视化团队，基于html5 Canvas，是一个纯Javascript图表库。</t>
+  </si>
+  <si>
+    <t>中国、省、市</t>
+  </si>
+  <si>
+    <t>强</t>
+  </si>
+  <si>
+    <t>IE支持不好</t>
+  </si>
+  <si>
+    <t>支持省市级区域划分。</t>
+  </si>
+  <si>
+    <t>由于基于HTML5，因此需要支持HTML5的浏览器才行。对IE支持不完善。</t>
+  </si>
+  <si>
+    <t>直观，生动，可交互，可个性化定制。</t>
+  </si>
+  <si>
+    <t>扩展性较好。</t>
+  </si>
+  <si>
+    <t>加载速度相对较快。</t>
+  </si>
+  <si>
+    <t>地图汇</t>
+  </si>
+  <si>
+    <t>国内一款专业地图插件。面向企业机构和个人用户。</t>
+  </si>
+  <si>
+    <t>世界、全国、大区、省市、区县</t>
+  </si>
+  <si>
+    <t>暂不支持</t>
+  </si>
+  <si>
+    <t>支持世界，全国，区县各级行政区域。</t>
+  </si>
+  <si>
+    <t>收费。</t>
+  </si>
+  <si>
+    <t>（需联系官方客服）</t>
+  </si>
+  <si>
+    <t>支持多浏览器，兼容性较好。</t>
+  </si>
+  <si>
+    <t>需要联网调用官方开放接口，稳定性需要考虑。</t>
+  </si>
+  <si>
+    <t>模版丰富，功能强大，扩展性较好。</t>
+  </si>
+  <si>
+    <t>百度地图、</t>
+  </si>
+  <si>
+    <t>国内IT公司推出的免费地图API。</t>
+  </si>
+  <si>
+    <t>世界、全国、省市、区县</t>
+  </si>
+  <si>
+    <t>不支持</t>
+  </si>
+  <si>
+    <t>功能较丰富，扩展性较好。</t>
+  </si>
+  <si>
+    <t>需要调用官方开放接口，不支持离线状态。</t>
+  </si>
+  <si>
+    <t>高德地图、</t>
+  </si>
+  <si>
+    <t>浏览器兼容性较好。</t>
+  </si>
+  <si>
+    <t>由于地图不是矢量图片，加载省级区域着色速度较慢。</t>
+  </si>
+  <si>
+    <t>搜狗地图、</t>
+  </si>
+  <si>
+    <t>soso地图、</t>
+  </si>
+  <si>
+    <t>阿里云地图、</t>
+  </si>
+  <si>
+    <t>MapBar、</t>
+  </si>
+  <si>
+    <t>51地图</t>
+  </si>
+  <si>
+    <t>Kartograph</t>
+  </si>
+  <si>
+    <t>国外一个用于创建交互式地图框架，而且不需要任何地图服务商（如：Google Maps）支持</t>
+  </si>
+  <si>
+    <t>世界、省（国外）</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>功能较强，扩展性较好。</t>
+  </si>
+  <si>
+    <t>对中国地图支持不好。</t>
+  </si>
+  <si>
+    <t>需要SVG数据，开发难度相对较大。</t>
+  </si>
+  <si>
+    <t>Polymaps </t>
+  </si>
+  <si>
+    <t>国外一开源插件</t>
+  </si>
+  <si>
+    <t>提供快速的显示，支持矢量数据的可视化演示。</t>
+  </si>
+  <si>
+    <t>Craftmap </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +597,63 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +665,25 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,14 +734,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -342,9 +827,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,7 +925,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,6 +1000,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,6 +1052,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,7 +1244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -753,10 +1351,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -870,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -951,4 +1549,757 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B91BC65-239B-421A-B6FE-3DC4232A5C41}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="64.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="8.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663F0975-DDF9-44E6-86B3-F1D220227534}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>